--- a/SolenoidInterconnect/Documents/BOM.xlsx
+++ b/SolenoidInterconnect/Documents/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/589633b4559128e5/Documents/SolenoidIntercoinnect/SolenoidInterconnect/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="11_F25DC773A252ABDACC104874A1DB62C85ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51BBE980-0D4D-473D-83E5-E15B402A814E}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="11_F25DC773A252ABDACC104874A1DB62C85ADE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8BCD16C-0C48-493A-A5BE-2525244AC7AB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Item #</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Your Instructions / Notes</t>
   </si>
   <si>
-    <t>LM2904M</t>
-  </si>
-  <si>
     <t>J1, J2, J3, J4, J6, J8, J9, J10</t>
   </si>
   <si>
@@ -190,13 +187,19 @@
   </si>
   <si>
     <t>Ningbo Kangnex Elec</t>
+  </si>
+  <si>
+    <t>WJ15EDGKB-3.81-16P</t>
+  </si>
+  <si>
+    <t>WJ15EDGRM-3.81-16P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +257,12 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -284,7 +293,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -307,11 +316,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -359,6 +392,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -699,7 +739,7 @@
   <dimension ref="A9:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -744,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -752,29 +792,29 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1">
@@ -782,29 +822,29 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="2">
-        <v>8</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="H11" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -812,31 +852,31 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="J12" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -844,32 +884,35 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="2">
-        <v>8</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>13</v>
-      </c>
       <c r="J13" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:10">
+      <c r="E14" s="20"/>
       <c r="I14" s="10"/>
     </row>
   </sheetData>
